--- a/biology/Médecine/Rameau_communicant_blanc/Rameau_communicant_blanc.xlsx
+++ b/biology/Médecine/Rameau_communicant_blanc/Rameau_communicant_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rameaux communicant blancs sont les 14 paires de petits nerfs reliant les ganglions sympathiques du tronc sympathique aux nerfs spinaux. Ils ne sont présents que pour les nerfs thoraciques et les deux premiers nerfs lombaires.
 Ils font partie du système nerveux sympathique servant de relais pour les informations entre le tronc sympathique et les organes innervés et sont constitués de fibres myélinisées et non myélinisées
@@ -512,7 +524,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rameaux communicants blancs sont les sorties sympathiques pré-ganglionnaire de la moelle spinale.
 Les corps cellulaires des fibres myélinisées sympathiques préganglionnaires des rameaux communicants blancs se trouvent dans la colonne cellulaire intermédio-latérale homolatérale qui s'étend de T1 à L2. 
